--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_5_3.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_5_3.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2044419.769607725</v>
+        <v>-2046835.28910787</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836233</v>
+        <v>6654055.582836238</v>
       </c>
     </row>
     <row r="8">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>198.4182541942626</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>127.7871088419761</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>129.2936421612624</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>110.8154279060267</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>21.8076272146869</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,16 +826,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>138.8984061512191</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,19 +896,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>325.6781984614678</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>203.7844101986658</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1069,13 +1069,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,25 +1096,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>64.5756970077675</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>155.2114886365811</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1145,10 +1145,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>121.1693910461994</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>218.4182404991145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1345,19 +1345,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>209.3192495738129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>269.0275088281772</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1385,7 +1385,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873208</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
         <v>41.57692977292595</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1537,16 +1537,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>48.50975875493937</v>
+        <v>48.96729539614757</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,13 +1579,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1625,7 +1625,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292658</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
         <v>203.9179701396201</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1774,16 +1774,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>119.1960612277674</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -1819,10 +1819,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>235.9955072668616</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1862,7 +1862,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292658</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>18.93482921065027</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,10 +2050,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>99.13931750950071</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -2099,7 +2099,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2248,16 +2248,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>50.83960568227727</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>171.9560413236375</v>
       </c>
     </row>
     <row r="23">
@@ -2473,22 +2473,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>25.01141625626309</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.689844124971</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633456</v>
       </c>
       <c r="C28" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D28" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797658</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G28" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H28" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124662</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S28" t="n">
         <v>142.7938887128493</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2950,25 +2950,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C31" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D31" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797658</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G31" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H31" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124634</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128493</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C34" t="n">
         <v>120.2716844800353</v>
       </c>
       <c r="D34" t="n">
-        <v>101.6403363996199</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797667</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433874</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G34" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572828</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I34" t="n">
-        <v>49.3772837912456</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145483</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S34" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T34" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U34" t="n">
-        <v>239.2367015870204</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V34" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W34" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X34" t="n">
-        <v>178.7345187704447</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y34" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="35">
@@ -3275,7 +3275,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>410.9217256534534</v>
@@ -3424,25 +3424,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C37" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D37" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E37" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F37" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G37" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H37" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145478</v>
       </c>
       <c r="S37" t="n">
         <v>142.7938887128493</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534538</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C40" t="n">
         <v>120.2716844800353</v>
@@ -3667,19 +3667,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797664</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433872</v>
       </c>
       <c r="G40" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572825</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124557</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145477</v>
+        <v>41.9570160514548</v>
       </c>
       <c r="S40" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T40" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U40" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V40" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W40" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X40" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y40" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="41">
@@ -3743,7 +3743,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3758,7 +3758,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3834,10 +3834,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3898,25 +3898,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C43" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D43" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G43" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S43" t="n">
         <v>142.7938887128493</v>
@@ -4135,25 +4135,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C46" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D46" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G46" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124552</v>
+        <v>49.3772837912455</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1177.083040205737</v>
+        <v>1516.146923934115</v>
       </c>
       <c r="C2" t="n">
-        <v>1177.083040205737</v>
+        <v>1147.184406993704</v>
       </c>
       <c r="D2" t="n">
-        <v>818.8173415989861</v>
+        <v>1147.184406993704</v>
       </c>
       <c r="E2" t="n">
-        <v>818.8173415989861</v>
+        <v>761.3961543954592</v>
       </c>
       <c r="F2" t="n">
-        <v>407.8314368093785</v>
+        <v>754.4506536462558</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>336.4868455444426</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4328,10 +4328,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224076</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2292.886095974049</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>2292.886095974049</v>
       </c>
       <c r="W2" t="n">
-        <v>1662.48357412947</v>
+        <v>2292.886095974049</v>
       </c>
       <c r="X2" t="n">
-        <v>1289.01781586839</v>
+        <v>2292.886095974049</v>
       </c>
       <c r="Y2" t="n">
-        <v>1177.083040205737</v>
+        <v>1902.746763998237</v>
       </c>
     </row>
     <row r="3">
@@ -4410,13 +4410,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>351.9927747426011</v>
+        <v>359.1897464970881</v>
       </c>
       <c r="C4" t="n">
-        <v>351.9927747426011</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="D4" t="n">
-        <v>351.9927747426011</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="E4" t="n">
-        <v>351.9927747426011</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="F4" t="n">
-        <v>211.6913543878343</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406185</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406185</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T4" t="n">
-        <v>579.9823256406185</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U4" t="n">
-        <v>579.9823256406185</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V4" t="n">
-        <v>579.9823256406185</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="W4" t="n">
-        <v>579.9823256406185</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="X4" t="n">
-        <v>351.9927747426011</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="Y4" t="n">
-        <v>351.9927747426011</v>
+        <v>359.1897464970881</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1328.4755035807</v>
+        <v>1646.746562480845</v>
       </c>
       <c r="C5" t="n">
-        <v>959.5129866402885</v>
+        <v>1646.746562480845</v>
       </c>
       <c r="D5" t="n">
-        <v>959.5129866402885</v>
+        <v>1288.480863874094</v>
       </c>
       <c r="E5" t="n">
         <v>959.5129866402885</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G5" t="n">
         <v>534.603677789272</v>
@@ -4565,19 +4565,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4595,22 +4595,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V5" t="n">
-        <v>2311.057514205145</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W5" t="n">
-        <v>2105.214675620634</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="X5" t="n">
-        <v>2105.214675620634</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="Y5" t="n">
-        <v>1715.075343644822</v>
+        <v>2033.346402544967</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4665,28 +4665,28 @@
         <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>257.3478788207</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>257.3478788207</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>257.3478788207</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>257.3478788207</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>257.3478788207</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>257.3478788207</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>485.3374297187173</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>485.3374297187173</v>
       </c>
       <c r="U7" t="n">
-        <v>571.3497027553424</v>
+        <v>485.3374297187173</v>
       </c>
       <c r="V7" t="n">
-        <v>571.3497027553424</v>
+        <v>485.3374297187173</v>
       </c>
       <c r="W7" t="n">
-        <v>281.9325327183818</v>
+        <v>485.3374297187173</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>257.3478788207</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>257.3478788207</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>990.5839652830421</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="C8" t="n">
-        <v>990.5839652830421</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D8" t="n">
-        <v>632.3182666762915</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E8" t="n">
-        <v>632.3182666762915</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>221.3323618866839</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
@@ -4802,19 +4802,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2302.336936304455</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2302.336936304455</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V8" t="n">
-        <v>1971.274048960885</v>
+        <v>2089.787804211887</v>
       </c>
       <c r="W8" t="n">
-        <v>1971.274048960885</v>
+        <v>1737.019148941773</v>
       </c>
       <c r="X8" t="n">
-        <v>1597.808290699805</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="Y8" t="n">
-        <v>1377.183805347164</v>
+        <v>1363.553390680693</v>
       </c>
     </row>
     <row r="9">
@@ -4893,13 +4893,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>487.2784796319623</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>487.2784796319623</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>487.2784796319623</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>487.2784796319623</v>
       </c>
       <c r="W10" t="n">
-        <v>456.3840257941342</v>
+        <v>487.2784796319623</v>
       </c>
       <c r="X10" t="n">
-        <v>456.3840257941342</v>
+        <v>487.2784796319623</v>
       </c>
       <c r="Y10" t="n">
-        <v>235.5914466506042</v>
+        <v>487.2784796319623</v>
       </c>
     </row>
     <row r="11">
@@ -5018,19 +5018,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H11" t="n">
         <v>137.5579332089257</v>
@@ -5045,22 +5045,22 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L11" t="n">
-        <v>1849.525439218844</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M11" t="n">
-        <v>2383.057343890769</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N11" t="n">
-        <v>3362.809616117416</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O11" t="n">
-        <v>3865.782086996753</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P11" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5109,31 +5109,31 @@
         <v>341.4333205763703</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193584</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320239</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
         <v>2436.460902902952</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>460.1767209741892</v>
+        <v>754.9793597803102</v>
       </c>
       <c r="C13" t="n">
-        <v>460.1767209741892</v>
+        <v>586.0431768524033</v>
       </c>
       <c r="D13" t="n">
-        <v>460.1767209741892</v>
+        <v>586.0431768524033</v>
       </c>
       <c r="E13" t="n">
-        <v>312.263627391796</v>
+        <v>438.1300832700102</v>
       </c>
       <c r="F13" t="n">
-        <v>312.263627391796</v>
+        <v>291.2401357720998</v>
       </c>
       <c r="G13" t="n">
-        <v>144.560790766515</v>
+        <v>291.2401357720998</v>
       </c>
       <c r="H13" t="n">
-        <v>144.560790766515</v>
+        <v>145.0229489899576</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
@@ -5227,22 +5227,22 @@
         <v>1674.827124689058</v>
       </c>
       <c r="T13" t="n">
-        <v>1453.060509258584</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U13" t="n">
-        <v>1453.060509258584</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="V13" t="n">
-        <v>1198.376021052697</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="W13" t="n">
-        <v>908.9588510157366</v>
+        <v>1385.409954652097</v>
       </c>
       <c r="X13" t="n">
-        <v>680.9693001177193</v>
+        <v>1157.42040375408</v>
       </c>
       <c r="Y13" t="n">
-        <v>460.1767209741892</v>
+        <v>936.62782461055</v>
       </c>
     </row>
     <row r="14">
@@ -5255,22 +5255,22 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089263</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
@@ -5285,16 +5285,16 @@
         <v>1557.603359811481</v>
       </c>
       <c r="M14" t="n">
-        <v>2536.15366264131</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N14" t="n">
-        <v>3082.932479700092</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O14" t="n">
-        <v>3692.333950986038</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P14" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q14" t="n">
         <v>4653.975400188666</v>
@@ -5303,19 +5303,19 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X14" t="n">
         <v>3150.95552873011</v>
@@ -5331,37 +5331,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C15" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193584</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5379,16 +5379,16 @@
         <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5397,10 +5397,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="16">
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>460.1767209741892</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C16" t="n">
-        <v>460.1767209741892</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D16" t="n">
-        <v>460.1767209741892</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E16" t="n">
-        <v>460.1767209741892</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F16" t="n">
-        <v>313.2867734762788</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G16" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
@@ -5458,28 +5458,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T16" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U16" t="n">
-        <v>1453.060509258584</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V16" t="n">
-        <v>1198.376021052697</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W16" t="n">
-        <v>908.9588510157366</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X16" t="n">
-        <v>680.9693001177193</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y16" t="n">
-        <v>460.1767209741892</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="17">
@@ -5495,43 +5495,43 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089263</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>785.6651881176192</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L17" t="n">
-        <v>1617.66584484778</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M17" t="n">
-        <v>2151.197749519704</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N17" t="n">
-        <v>3130.950021746351</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O17" t="n">
-        <v>4010.914672075806</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P17" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q17" t="n">
         <v>4653.975400188666</v>
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3154.542034367488</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C18" t="n">
-        <v>2980.089005086361</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D18" t="n">
-        <v>2831.15459542511</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E18" t="n">
-        <v>2671.917140419654</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F18" t="n">
-        <v>2525.382582446538</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G18" t="n">
-        <v>2389.019482279159</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H18" t="n">
-        <v>2298.517587917026</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I18" t="n">
-        <v>2279.510296318563</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>2373.18756580918</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K18" t="n">
-        <v>2611.451764789527</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>2978.149925102192</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M18" t="n">
-        <v>3425.426250324508</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>3898.949293878963</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O18" t="n">
-        <v>4309.910573297017</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>4620.41016477312</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
-        <v>4778.051722419721</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>4777.907369012236</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S18" t="n">
-        <v>4648.469482505716</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
-        <v>4455.826482183571</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>4227.758635317987</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V18" t="n">
-        <v>3992.606527086245</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W18" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>3530.51767015251</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y18" t="n">
-        <v>3322.757371387556</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>392.5676213586405</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="C19" t="n">
-        <v>392.5676213586405</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="D19" t="n">
-        <v>242.4509819463048</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="E19" t="n">
-        <v>242.4509819463048</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="F19" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H19" t="n">
         <v>95.56103444839442</v>
@@ -5674,7 +5674,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L19" t="n">
         <v>661.2306482927024</v>
@@ -5686,37 +5686,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1856.202741347632</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T19" t="n">
-        <v>1856.202741347632</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U19" t="n">
-        <v>1567.099874473275</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V19" t="n">
-        <v>1312.415386267388</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W19" t="n">
-        <v>1022.998216230428</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X19" t="n">
-        <v>795.0086653324104</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y19" t="n">
-        <v>574.2160861888802</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="20">
@@ -5726,49 +5726,49 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>939.1634975427193</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L20" t="n">
-        <v>1390.197710791128</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M20" t="n">
-        <v>2274.668463554308</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N20" t="n">
-        <v>3254.420735780954</v>
+        <v>2985.817436667298</v>
       </c>
       <c r="O20" t="n">
-        <v>3757.393206660291</v>
+        <v>3865.782086996753</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q20" t="n">
         <v>4719.034655862919</v>
@@ -5783,19 +5783,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="21">
@@ -5805,37 +5805,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C21" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193586</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320239</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5844,25 +5844,25 @@
         <v>1715.000032008795</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T21" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5871,10 +5871,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="22">
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>974.4454116758762</v>
+        <v>539.8079542252655</v>
       </c>
       <c r="C22" t="n">
-        <v>805.5092287479694</v>
+        <v>539.8079542252655</v>
       </c>
       <c r="D22" t="n">
-        <v>655.3925893356336</v>
+        <v>389.6913148129298</v>
       </c>
       <c r="E22" t="n">
-        <v>507.4794957532405</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="F22" t="n">
-        <v>360.5895482553301</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G22" t="n">
-        <v>192.8867116300491</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H22" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
         <v>95.56103444839442</v>
@@ -5911,7 +5911,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
         <v>661.2306482927024</v>
@@ -5923,37 +5923,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1764.657581931529</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T22" t="n">
-        <v>1542.890966501056</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U22" t="n">
-        <v>1253.788099626699</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V22" t="n">
-        <v>1253.788099626699</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.434962573894</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="X22" t="n">
-        <v>974.4454116758762</v>
+        <v>895.1493900894825</v>
       </c>
       <c r="Y22" t="n">
-        <v>974.4454116758762</v>
+        <v>721.4564190555052</v>
       </c>
     </row>
     <row r="23">
@@ -5987,28 +5987,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L23" t="n">
-        <v>1141.907595688919</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M23" t="n">
-        <v>2120.457898518747</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N23" t="n">
-        <v>2667.23671557753</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O23" t="n">
-        <v>3547.201365906984</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P23" t="n">
-        <v>4260.55645335393</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R23" t="n">
         <v>4778.05172241972</v>
@@ -6042,37 +6042,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973185</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161915</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549404</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494848</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763699</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089883</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468559</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193584</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6087,28 +6087,28 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
-        <v>2271.877220313402</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V24" t="n">
-        <v>1808.657265216075</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W24" t="n">
-        <v>1554.419908487873</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.56840828234</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y24" t="n">
         <v>1138.808109517387</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>270.9417306852383</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="C25" t="n">
-        <v>270.9417306852383</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="D25" t="n">
-        <v>120.8250912729026</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="E25" t="n">
-        <v>95.56103444839442</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="F25" t="n">
-        <v>95.56103444839442</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="G25" t="n">
         <v>95.56103444839442</v>
@@ -6172,25 +6172,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T25" t="n">
-        <v>1734.57685067423</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U25" t="n">
-        <v>1445.473983799873</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V25" t="n">
-        <v>1190.789495593986</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W25" t="n">
-        <v>901.3723255570255</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X25" t="n">
-        <v>673.3827746590082</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y25" t="n">
-        <v>452.5901955154781</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="26">
@@ -6203,19 +6203,19 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001578</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
@@ -6224,22 +6224,22 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J26" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K26" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L26" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M26" t="n">
-        <v>2461.32865758045</v>
+        <v>2536.15366264131</v>
       </c>
       <c r="N26" t="n">
-        <v>3044.228895027647</v>
+        <v>3082.932479700092</v>
       </c>
       <c r="O26" t="n">
-        <v>3547.201365906984</v>
+        <v>3585.904950579429</v>
       </c>
       <c r="P26" t="n">
         <v>4260.55645335393</v>
@@ -6257,19 +6257,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="27">
@@ -6279,34 +6279,34 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C27" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J27" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K27" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L27" t="n">
         <v>794.200663232024</v>
@@ -6315,28 +6315,28 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T27" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>788.5151678215063</v>
+        <v>788.5151678215052</v>
       </c>
       <c r="C28" t="n">
-        <v>667.0286178416727</v>
+        <v>667.0286178416716</v>
       </c>
       <c r="D28" t="n">
-        <v>564.3616113774103</v>
+        <v>564.3616113774092</v>
       </c>
       <c r="E28" t="n">
-        <v>463.8981507430905</v>
+        <v>463.8981507430894</v>
       </c>
       <c r="F28" t="n">
-        <v>364.4578361932535</v>
+        <v>364.4578361932524</v>
       </c>
       <c r="G28" t="n">
-        <v>244.2046325160457</v>
+        <v>244.2046325160447</v>
       </c>
       <c r="H28" t="n">
-        <v>145.4370786819769</v>
+        <v>145.4370786819757</v>
       </c>
       <c r="I28" t="n">
         <v>95.56103444839441</v>
@@ -6385,7 +6385,7 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K28" t="n">
-        <v>437.6816203490197</v>
+        <v>437.6816203490196</v>
       </c>
       <c r="L28" t="n">
         <v>800.7468040499225</v>
@@ -6421,13 +6421,13 @@
         <v>1518.564400937961</v>
       </c>
       <c r="W28" t="n">
-        <v>1276.596863849074</v>
+        <v>1276.596863849073</v>
       </c>
       <c r="X28" t="n">
         <v>1096.056945899129</v>
       </c>
       <c r="Y28" t="n">
-        <v>922.7139997036727</v>
+        <v>922.7139997036725</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J29" t="n">
         <v>451.8458144277729</v>
@@ -6473,40 +6473,40 @@
         <v>2504.619866888352</v>
       </c>
       <c r="N29" t="n">
-        <v>3484.372139114998</v>
+        <v>3362.809616117415</v>
       </c>
       <c r="O29" t="n">
-        <v>3987.344609994335</v>
+        <v>3865.782086996752</v>
       </c>
       <c r="P29" t="n">
-        <v>4382.118976351513</v>
+        <v>4260.55645335393</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6516,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G30" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J30" t="n">
         <v>189.2383039390118</v>
@@ -6573,7 +6573,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6582,10 +6582,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="31">
@@ -6595,34 +6595,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>788.5151678215057</v>
+        <v>788.5151678215061</v>
       </c>
       <c r="C31" t="n">
-        <v>667.028617841672</v>
+        <v>667.0286178416725</v>
       </c>
       <c r="D31" t="n">
-        <v>564.3616113774096</v>
+        <v>564.3616113774101</v>
       </c>
       <c r="E31" t="n">
-        <v>463.8981507430894</v>
+        <v>463.8981507430903</v>
       </c>
       <c r="F31" t="n">
-        <v>364.4578361932524</v>
+        <v>364.4578361932532</v>
       </c>
       <c r="G31" t="n">
-        <v>244.2046325160446</v>
+        <v>244.2046325160455</v>
       </c>
       <c r="H31" t="n">
-        <v>145.4370786819757</v>
+        <v>145.4370786819766</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J31" t="n">
         <v>187.1890521477366</v>
       </c>
       <c r="K31" t="n">
-        <v>437.6816203490197</v>
+        <v>437.6816203490196</v>
       </c>
       <c r="L31" t="n">
         <v>800.7468040499225</v>
@@ -6655,7 +6655,7 @@
         <v>1725.799256195774</v>
       </c>
       <c r="V31" t="n">
-        <v>1518.56440093796</v>
+        <v>1518.564400937961</v>
       </c>
       <c r="W31" t="n">
         <v>1276.596863849073</v>
@@ -6664,7 +6664,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y31" t="n">
-        <v>922.713999703672</v>
+        <v>922.7139997036725</v>
       </c>
     </row>
     <row r="32">
@@ -6689,10 +6689,10 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
@@ -6701,25 +6701,25 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K32" t="n">
-        <v>785.6651881176194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L32" t="n">
-        <v>1650.184003770974</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M32" t="n">
-        <v>2183.715908442899</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N32" t="n">
-        <v>2985.817436667298</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O32" t="n">
-        <v>3865.782086996753</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P32" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R32" t="n">
         <v>4778.051722419721</v>
@@ -6753,43 +6753,43 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M33" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O33" t="n">
         <v>2125.96131142685</v>
@@ -6798,7 +6798,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R33" t="n">
         <v>2593.958107142068</v>
@@ -6807,16 +6807,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T33" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V33" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W33" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X33" t="n">
         <v>1346.568408282342</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>788.5151678215057</v>
+        <v>788.5151678215053</v>
       </c>
       <c r="C34" t="n">
-        <v>667.028617841672</v>
+        <v>667.0286178416717</v>
       </c>
       <c r="D34" t="n">
-        <v>564.3616113774095</v>
+        <v>564.3616113774093</v>
       </c>
       <c r="E34" t="n">
-        <v>463.8981507430897</v>
+        <v>463.8981507430894</v>
       </c>
       <c r="F34" t="n">
-        <v>364.4578361932525</v>
+        <v>364.4578361932524</v>
       </c>
       <c r="G34" t="n">
-        <v>244.2046325160448</v>
+        <v>244.2046325160447</v>
       </c>
       <c r="H34" t="n">
-        <v>145.4370786819758</v>
+        <v>145.4370786819757</v>
       </c>
       <c r="I34" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
-        <v>187.1890521477366</v>
+        <v>187.1890521477367</v>
       </c>
       <c r="K34" t="n">
-        <v>437.6816203490195</v>
+        <v>437.6816203490197</v>
       </c>
       <c r="L34" t="n">
-        <v>800.7468040499223</v>
+        <v>800.7468040499226</v>
       </c>
       <c r="M34" t="n">
         <v>1191.409234901878</v>
@@ -6901,7 +6901,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y34" t="n">
-        <v>922.7139997036721</v>
+        <v>922.7139997036718</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D35" t="n">
         <v>1646.988141143014</v>
@@ -6923,10 +6923,10 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551623</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H35" t="n">
         <v>137.5579332089257</v>
@@ -6935,28 +6935,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K35" t="n">
-        <v>975.9286436089831</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L35" t="n">
-        <v>1840.447459262338</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M35" t="n">
-        <v>2373.979363934262</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N35" t="n">
-        <v>2920.758180993045</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O35" t="n">
-        <v>3800.7228313225</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R35" t="n">
         <v>4778.051722419721</v>
@@ -6968,19 +6968,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="36">
@@ -6990,19 +6990,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G36" t="n">
         <v>205.0702204089889</v>
@@ -7014,13 +7014,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K36" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
@@ -7032,22 +7032,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q36" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S36" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T36" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V36" t="n">
         <v>1808.657265216076</v>
@@ -7056,10 +7056,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="37">
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>788.5151678215047</v>
+        <v>788.5151678215054</v>
       </c>
       <c r="C37" t="n">
-        <v>667.0286178416713</v>
+        <v>667.0286178416718</v>
       </c>
       <c r="D37" t="n">
-        <v>564.3616113774091</v>
+        <v>564.3616113774094</v>
       </c>
       <c r="E37" t="n">
-        <v>463.8981507430893</v>
+        <v>463.8981507430895</v>
       </c>
       <c r="F37" t="n">
-        <v>364.4578361932523</v>
+        <v>364.4578361932524</v>
       </c>
       <c r="G37" t="n">
-        <v>244.2046325160446</v>
+        <v>244.2046325160447</v>
       </c>
       <c r="H37" t="n">
-        <v>145.4370786819757</v>
+        <v>145.4370786819758</v>
       </c>
       <c r="I37" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
-        <v>187.1890521477367</v>
+        <v>187.1890521477366</v>
       </c>
       <c r="K37" t="n">
-        <v>437.6816203490197</v>
+        <v>437.6816203490196</v>
       </c>
       <c r="L37" t="n">
         <v>800.7468040499225</v>
@@ -7114,31 +7114,31 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q37" t="n">
-        <v>2328.386548123956</v>
+        <v>2328.386548123957</v>
       </c>
       <c r="R37" t="n">
-        <v>2286.005723829557</v>
+        <v>2286.005723829558</v>
       </c>
       <c r="S37" t="n">
         <v>2141.769472604457</v>
       </c>
       <c r="T37" t="n">
-        <v>1967.452490122056</v>
+        <v>1967.452490122057</v>
       </c>
       <c r="U37" t="n">
-        <v>1725.799256195773</v>
+        <v>1725.799256195774</v>
       </c>
       <c r="V37" t="n">
-        <v>1518.564400937959</v>
+        <v>1518.56440093796</v>
       </c>
       <c r="W37" t="n">
-        <v>1276.596863849072</v>
+        <v>1276.596863849073</v>
       </c>
       <c r="X37" t="n">
-        <v>1096.056945899128</v>
+        <v>1096.056945899129</v>
       </c>
       <c r="Y37" t="n">
-        <v>922.7139997036711</v>
+        <v>922.7139997036718</v>
       </c>
     </row>
     <row r="38">
@@ -7154,16 +7154,16 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H38" t="n">
         <v>137.5579332089257</v>
@@ -7181,16 +7181,16 @@
         <v>1557.603359811481</v>
       </c>
       <c r="M38" t="n">
-        <v>2536.15366264131</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N38" t="n">
-        <v>3507.942201196468</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O38" t="n">
-        <v>4010.914672075805</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P38" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q38" t="n">
         <v>4653.975400188666</v>
@@ -7227,43 +7227,43 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I39" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M39" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O39" t="n">
         <v>2125.96131142685</v>
@@ -7272,7 +7272,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q39" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R39" t="n">
         <v>2593.958107142068</v>
@@ -7281,16 +7281,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T39" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V39" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W39" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X39" t="n">
         <v>1346.568408282342</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>788.5151678215057</v>
+        <v>788.5151678215059</v>
       </c>
       <c r="C40" t="n">
-        <v>667.0286178416717</v>
+        <v>667.0286178416723</v>
       </c>
       <c r="D40" t="n">
-        <v>564.3616113774093</v>
+        <v>564.3616113774098</v>
       </c>
       <c r="E40" t="n">
-        <v>463.8981507430895</v>
+        <v>463.8981507430899</v>
       </c>
       <c r="F40" t="n">
-        <v>364.4578361932524</v>
+        <v>364.4578361932528</v>
       </c>
       <c r="G40" t="n">
-        <v>244.2046325160447</v>
+        <v>244.204632516045</v>
       </c>
       <c r="H40" t="n">
         <v>145.4370786819758</v>
@@ -7336,16 +7336,16 @@
         <v>437.6816203490196</v>
       </c>
       <c r="L40" t="n">
-        <v>800.7468040499223</v>
+        <v>800.7468040499225</v>
       </c>
       <c r="M40" t="n">
         <v>1191.409234901878</v>
       </c>
       <c r="N40" t="n">
-        <v>1579.322996860149</v>
+        <v>1579.32299686015</v>
       </c>
       <c r="O40" t="n">
-        <v>1925.157981032969</v>
+        <v>1925.15798103297</v>
       </c>
       <c r="P40" t="n">
         <v>2204.270866719035</v>
@@ -7366,7 +7366,7 @@
         <v>1725.799256195774</v>
       </c>
       <c r="V40" t="n">
-        <v>1518.56440093796</v>
+        <v>1518.564400937961</v>
       </c>
       <c r="W40" t="n">
         <v>1276.596863849073</v>
@@ -7375,7 +7375,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y40" t="n">
-        <v>922.7139997036722</v>
+        <v>922.7139997036724</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7388,7 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D41" t="n">
         <v>1646.988141143014</v>
@@ -7409,25 +7409,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>785.6651881176194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L41" t="n">
-        <v>1650.184003770974</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M41" t="n">
-        <v>2628.734306600803</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N41" t="n">
-        <v>3175.513123659585</v>
+        <v>3008.107474639231</v>
       </c>
       <c r="O41" t="n">
-        <v>4055.47777398904</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P41" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q41" t="n">
         <v>4719.034655862919</v>
@@ -7436,19 +7436,19 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V41" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X41" t="n">
         <v>3150.95552873011</v>
@@ -7479,7 +7479,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H42" t="n">
         <v>114.5683260468565</v>
@@ -7488,13 +7488,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>788.5151678215053</v>
+        <v>788.5151678215052</v>
       </c>
       <c r="C43" t="n">
-        <v>667.0286178416717</v>
+        <v>667.0286178416716</v>
       </c>
       <c r="D43" t="n">
-        <v>564.3616113774093</v>
+        <v>564.3616113774092</v>
       </c>
       <c r="E43" t="n">
-        <v>463.8981507430895</v>
+        <v>463.8981507430894</v>
       </c>
       <c r="F43" t="n">
         <v>364.4578361932524</v>
@@ -7570,10 +7570,10 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K43" t="n">
-        <v>437.6816203490197</v>
+        <v>437.6816203490196</v>
       </c>
       <c r="L43" t="n">
-        <v>800.7468040499225</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M43" t="n">
         <v>1191.409234901878</v>
@@ -7588,7 +7588,7 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q43" t="n">
-        <v>2328.386548123956</v>
+        <v>2328.386548123957</v>
       </c>
       <c r="R43" t="n">
         <v>2286.005723829558</v>
@@ -7597,22 +7597,22 @@
         <v>2141.769472604457</v>
       </c>
       <c r="T43" t="n">
-        <v>1967.452490122057</v>
+        <v>1967.452490122056</v>
       </c>
       <c r="U43" t="n">
-        <v>1725.799256195774</v>
+        <v>1725.799256195773</v>
       </c>
       <c r="V43" t="n">
         <v>1518.56440093796</v>
       </c>
       <c r="W43" t="n">
-        <v>1276.596863849073</v>
+        <v>1276.596863849072</v>
       </c>
       <c r="X43" t="n">
-        <v>1096.056945899129</v>
+        <v>1096.056945899128</v>
       </c>
       <c r="Y43" t="n">
-        <v>922.7139997036718</v>
+        <v>922.7139997036716</v>
       </c>
     </row>
     <row r="44">
@@ -7637,7 +7637,7 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H44" t="n">
         <v>137.5579332089257</v>
@@ -7646,19 +7646,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K44" t="n">
-        <v>785.6651881176194</v>
+        <v>750.1800661608916</v>
       </c>
       <c r="L44" t="n">
-        <v>1650.184003770974</v>
+        <v>1614.698881814246</v>
       </c>
       <c r="M44" t="n">
-        <v>2216.257005193957</v>
+        <v>2593.249184644075</v>
       </c>
       <c r="N44" t="n">
-        <v>3196.009277420604</v>
+        <v>3573.001456870722</v>
       </c>
       <c r="O44" t="n">
         <v>4075.973927750058</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>788.5151678215057</v>
+        <v>788.5151678215052</v>
       </c>
       <c r="C46" t="n">
-        <v>667.028617841672</v>
+        <v>667.0286178416716</v>
       </c>
       <c r="D46" t="n">
-        <v>564.3616113774096</v>
+        <v>564.3616113774092</v>
       </c>
       <c r="E46" t="n">
-        <v>463.8981507430898</v>
+        <v>463.8981507430894</v>
       </c>
       <c r="F46" t="n">
-        <v>364.4578361932528</v>
+        <v>364.4578361932524</v>
       </c>
       <c r="G46" t="n">
-        <v>244.2046325160447</v>
+        <v>244.2046325160446</v>
       </c>
       <c r="H46" t="n">
-        <v>145.4370786819758</v>
+        <v>145.4370786819757</v>
       </c>
       <c r="I46" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J46" t="n">
-        <v>187.1890521477367</v>
+        <v>187.1890521477366</v>
       </c>
       <c r="K46" t="n">
-        <v>437.6816203490197</v>
+        <v>437.6816203490196</v>
       </c>
       <c r="L46" t="n">
-        <v>800.7468040499225</v>
+        <v>800.7468040499224</v>
       </c>
       <c r="M46" t="n">
         <v>1191.409234901878</v>
@@ -7831,7 +7831,7 @@
         <v>2286.005723829558</v>
       </c>
       <c r="S46" t="n">
-        <v>2141.769472604458</v>
+        <v>2141.769472604457</v>
       </c>
       <c r="T46" t="n">
         <v>1967.452490122057</v>
@@ -7849,7 +7849,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y46" t="n">
-        <v>922.713999703672</v>
+        <v>922.7139997036716</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.0294169142008</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747119</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8693,25 +8693,25 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>294.8707872801647</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8933,19 +8933,19 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>107.5040408147563</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9164,25 +9164,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>384.8145893755074</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9407,19 +9407,19 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>354.4836849406623</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>351.4175304294035</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -9635,22 +9635,22 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>73.34731650832686</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,25 +9872,25 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>36.48628322062177</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>282.7041781993159</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
@@ -10121,7 +10121,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>314.5564971416978</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -10130,10 +10130,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>23.80814351663682</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10349,28 +10349,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>257.9017284501182</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,31 +10583,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>192.185308577135</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10829,19 +10829,19 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>344.7025836476839</v>
       </c>
       <c r="N38" t="n">
-        <v>429.3027489862386</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11072,13 +11072,13 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>36.48628322062325</v>
       </c>
       <c r="P41" t="n">
-        <v>20.70318561719034</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11294,22 +11294,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>32.86979469803862</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -22547,7 +22547,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22559,10 +22559,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>215.3659158265324</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22595,22 +22595,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>121.9305253470269</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22702,19 +22702,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>6.522641871712125</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -22723,10 +22723,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22747,7 +22747,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -22756,16 +22756,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>-2.945315721635453e-13</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>47.84266165489872</v>
+        <v>47.38512501369052</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,13 +23467,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.1376433238261</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23662,16 +23662,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>46.82974703126082</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,10 +23707,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>16.14213605696636</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>148.3119918879776</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>90.62970782194118</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24136,16 +24136,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,28 +24172,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>235.6833926543137</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>46.62861202845727</v>
       </c>
     </row>
     <row r="23">
@@ -24361,22 +24361,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>121.4225463903061</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>2.335964134057178</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24412,7 +24412,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>-6.983302952577993e-13</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>-1.108446667785756e-12</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>-8.171241461241152e-13</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>53560.00146066982</v>
+        <v>53560.00146066978</v>
       </c>
       <c r="C2" t="n">
+        <v>61578.13273982124</v>
+      </c>
+      <c r="D2" t="n">
         <v>61578.13273982123</v>
       </c>
-      <c r="D2" t="n">
-        <v>61578.13273982124</v>
-      </c>
       <c r="E2" t="n">
-        <v>59562.2680330475</v>
+        <v>59562.26803304748</v>
       </c>
       <c r="F2" t="n">
-        <v>59562.26803304748</v>
+        <v>59562.26803304746</v>
       </c>
       <c r="G2" t="n">
-        <v>59562.26803304748</v>
+        <v>59562.26803304749</v>
       </c>
       <c r="H2" t="n">
         <v>59562.26803304748</v>
       </c>
       <c r="I2" t="n">
-        <v>59562.26803304745</v>
+        <v>59562.26803304748</v>
       </c>
       <c r="J2" t="n">
-        <v>61578.13273982117</v>
+        <v>61578.13273982116</v>
       </c>
       <c r="K2" t="n">
         <v>61578.13273982118</v>
       </c>
       <c r="L2" t="n">
-        <v>61578.13273982121</v>
+        <v>61578.13273982119</v>
       </c>
       <c r="M2" t="n">
-        <v>61578.13273982119</v>
+        <v>61578.13273982117</v>
       </c>
       <c r="N2" t="n">
         <v>61578.13273982119</v>
       </c>
       <c r="O2" t="n">
-        <v>61578.13273982121</v>
+        <v>61578.13273982117</v>
       </c>
       <c r="P2" t="n">
         <v>61578.13273982117</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934067</v>
+        <v>727377.4139934068</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>37580.10929487413</v>
+        <v>37580.10929487411</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26418,25 +26418,25 @@
         <v>122328.8823008209</v>
       </c>
       <c r="C4" t="n">
+        <v>183348.6868571279</v>
+      </c>
+      <c r="D4" t="n">
         <v>183348.686857128</v>
       </c>
-      <c r="D4" t="n">
-        <v>183348.6868571279</v>
-      </c>
       <c r="E4" t="n">
+        <v>18148.49231918994</v>
+      </c>
+      <c r="F4" t="n">
+        <v>18148.49231918991</v>
+      </c>
+      <c r="G4" t="n">
+        <v>18148.49231918992</v>
+      </c>
+      <c r="H4" t="n">
+        <v>18148.49231918994</v>
+      </c>
+      <c r="I4" t="n">
         <v>18148.49231918993</v>
-      </c>
-      <c r="F4" t="n">
-        <v>18148.49231918989</v>
-      </c>
-      <c r="G4" t="n">
-        <v>18148.49231918991</v>
-      </c>
-      <c r="H4" t="n">
-        <v>18148.49231918995</v>
-      </c>
-      <c r="I4" t="n">
-        <v>18148.49231918994</v>
       </c>
       <c r="J4" t="n">
         <v>33605.65329740899</v>
@@ -26445,19 +26445,19 @@
         <v>33605.65329740899</v>
       </c>
       <c r="L4" t="n">
-        <v>33605.65329740897</v>
+        <v>33605.65329740899</v>
       </c>
       <c r="M4" t="n">
+        <v>33605.65329740899</v>
+      </c>
+      <c r="N4" t="n">
         <v>33605.65329740898</v>
       </c>
-      <c r="N4" t="n">
-        <v>33605.65329740897</v>
-      </c>
       <c r="O4" t="n">
-        <v>33605.65329740898</v>
+        <v>33605.65329740896</v>
       </c>
       <c r="P4" t="n">
-        <v>33605.65329740899</v>
+        <v>33605.65329740901</v>
       </c>
     </row>
     <row r="5">
@@ -26482,13 +26482,13 @@
         <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
         <v>100332.6710141021</v>
@@ -26519,37 +26519,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-741595.8381181051</v>
+        <v>-741863.1091607433</v>
       </c>
       <c r="C6" t="n">
+        <v>-204629.6321807161</v>
+      </c>
+      <c r="D6" t="n">
         <v>-204629.6321807162</v>
       </c>
-      <c r="D6" t="n">
-        <v>-204629.6321807161</v>
-      </c>
       <c r="E6" t="n">
-        <v>-782347.1565332627</v>
+        <v>-782414.3520234887</v>
       </c>
       <c r="F6" t="n">
-        <v>-54969.74253985607</v>
+        <v>-55036.9380300819</v>
       </c>
       <c r="G6" t="n">
-        <v>-54969.74253985607</v>
+        <v>-55036.93803008188</v>
       </c>
       <c r="H6" t="n">
-        <v>-54969.74253985604</v>
+        <v>-55036.9380300819</v>
       </c>
       <c r="I6" t="n">
-        <v>-54969.74253985612</v>
+        <v>-55036.9380300819</v>
       </c>
       <c r="J6" t="n">
-        <v>-286363.520059157</v>
+        <v>-286363.5200591569</v>
       </c>
       <c r="K6" t="n">
-        <v>-72360.19157168994</v>
+        <v>-72360.19157168991</v>
       </c>
       <c r="L6" t="n">
-        <v>-72360.19157168981</v>
+        <v>-72360.19157168992</v>
       </c>
       <c r="M6" t="n">
         <v>-202002.5064106347</v>
@@ -26561,7 +26561,7 @@
         <v>-109940.300866564</v>
       </c>
       <c r="P6" t="n">
-        <v>-72360.19157168994</v>
+        <v>-72360.19157168995</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M2" t="n">
+        <v>46.97513661859255</v>
+      </c>
+      <c r="N2" t="n">
+        <v>46.97513661859253</v>
+      </c>
+      <c r="O2" t="n">
         <v>46.97513661859259</v>
       </c>
-      <c r="N2" t="n">
-        <v>46.97513661859256</v>
-      </c>
-      <c r="O2" t="n">
-        <v>46.97513661859256</v>
-      </c>
       <c r="P2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859266</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859266</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762116</v>
+        <v>712.0330363762117</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859266</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>196.135663922381</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>275.4225107500269</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,16 +27534,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>145.4391938839409</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27552,13 +27552,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -27588,22 +27588,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,19 +27616,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>56.25217161079399</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27667,16 +27667,16 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>145.4565585187472</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27789,13 +27789,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,25 +27816,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>147.5698419422514</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>131.0703856053966</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27865,10 +27865,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>206.5828674239355</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>167.8196981569391</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,19 +28065,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>76.96262466816486</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>17.49548950841381</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28305,7 +28305,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>1.885306725550132e-12</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="35">
@@ -29995,7 +29995,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="38">
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859253</v>
       </c>
     </row>
     <row r="41">
@@ -30463,7 +30463,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -30508,7 +30508,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>-1.051603248924948e-12</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31695,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32309,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32397,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32415,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33269,7 +33269,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N30" t="n">
         <v>609.6478166837925</v>
@@ -33503,7 +33503,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
         <v>593.9283018233475</v>
@@ -33734,7 +33734,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
@@ -33989,7 +33989,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
         <v>299.2156706987487</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I41" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,40 +34205,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837931</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34293,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34311,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>138.389756104752</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>54.37527471535621</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35413,25 +35413,25 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>750.4609016724969</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q11" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35653,19 +35653,19 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>615.5570417029754</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P14" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
         <v>125.3296184152072</v>
@@ -35884,25 +35884,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>840.4047037678394</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509644</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
         <v>125.3296184152072</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36054,13 +36054,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>893.4048007708889</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248955</v>
+        <v>903.719365842315</v>
       </c>
       <c r="O20" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36291,13 +36291,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,22 +36355,22 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>528.937430900659</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509645</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P23" t="n">
         <v>720.5606943908545</v>
@@ -36379,7 +36379,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36592,25 +36592,25 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>588.7881186335333</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>681.4661644186878</v>
       </c>
       <c r="Q26" t="n">
         <v>463.1092954636242</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165881</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K28" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L28" t="n">
         <v>366.7325087887907</v>
@@ -36841,7 +36841,7 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248956</v>
+        <v>866.8583325546093</v>
       </c>
       <c r="O29" t="n">
         <v>508.0530008882191</v>
@@ -36850,10 +36850,10 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>274.6024483203563</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,7 +36917,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N30" t="n">
         <v>478.3061046004592</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165881</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K31" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L31" t="n">
         <v>366.7325087887907</v>
@@ -37069,28 +37069,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>810.2035638630297</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,7 +37151,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340055</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
         <v>451.7942679013292</v>
@@ -37224,16 +37224,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165873</v>
+        <v>92.55355323165882</v>
       </c>
       <c r="K34" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887908</v>
       </c>
       <c r="M34" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N34" t="n">
         <v>391.8320827861326</v>
@@ -37242,7 +37242,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P34" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q34" t="n">
         <v>125.3693751564862</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>529.3765951325355</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P35" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K37" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L37" t="n">
         <v>366.7325087887907</v>
@@ -37476,13 +37476,13 @@
         <v>391.8320827861327</v>
       </c>
       <c r="O37" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P37" t="n">
         <v>281.932207763703</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37549,19 +37549,19 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>988.4346493230593</v>
+        <v>883.6236994779107</v>
       </c>
       <c r="N38" t="n">
-        <v>981.6045843991501</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
         <v>125.3296184152072</v>
@@ -37637,7 +37637,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
         <v>159.2338966127272</v>
@@ -37710,7 +37710,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O40" t="n">
         <v>349.3282668412323</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L41" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M41" t="n">
-        <v>988.4346493230593</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O41" t="n">
-        <v>888.8531821509645</v>
+        <v>544.5392841088423</v>
       </c>
       <c r="P41" t="n">
-        <v>419.4651718365622</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004598</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,22 +38014,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>470.444344195426</v>
       </c>
       <c r="L44" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M44" t="n">
-        <v>571.7909105282654</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N44" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
         <v>398.7619862193719</v>
@@ -38175,7 +38175,7 @@
         <v>92.55355323165881</v>
       </c>
       <c r="K46" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L46" t="n">
         <v>366.7325087887907</v>
@@ -38193,7 +38193,7 @@
         <v>281.932207763703</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564863</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
